--- a/evaluation/5.3_evaluation_build_time_new_number_of_functions.xlsx
+++ b/evaluation/5.3_evaluation_build_time_new_number_of_functions.xlsx
@@ -455,8 +455,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I231" sqref="I231:I255"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,41 +468,23 @@
     <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2">
         <v>25</v>
       </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -517,14 +499,8 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -557,14 +533,8 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -605,14 +575,8 @@
         <f t="shared" si="2"/>
         <v>29.2</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -652,14 +616,8 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -699,14 +657,8 @@
         <f t="shared" si="6"/>
         <v>39.699999999999996</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -746,14 +698,8 @@
         <f t="shared" si="8"/>
         <v>53.3</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>20</v>
       </c>
@@ -793,14 +739,8 @@
         <f t="shared" si="10"/>
         <v>76.400000000000006</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>40</v>
       </c>
@@ -841,7 +781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>60</v>
       </c>
@@ -882,7 +822,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>80</v>
       </c>
@@ -923,7 +863,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>100</v>
       </c>
@@ -964,10 +904,10 @@
         <v>255.4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
